--- a/Prototypes/Lucerne/LucerneAllObs.xlsx
+++ b/Prototypes/Lucerne/LucerneAllObs.xlsx
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="28">
   <si>
     <t>Treat</t>
-  </si>
-  <si>
-    <t>lai</t>
   </si>
   <si>
     <t>leafgreenwt</t>
@@ -123,6 +120,10 @@
   </si>
   <si>
     <t>JimbourSowingDateStrip6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAI</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1263,8 +1264,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1282,52 +1283,52 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
       </c>
       <c r="Q1" t="str">
         <f>E1&amp;"error"</f>
@@ -1380,7 +1381,7 @@
     </row>
     <row r="2" spans="1:28" hidden="1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1424,7 +1425,7 @@
     </row>
     <row r="3" spans="1:28" hidden="1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1468,7 +1469,7 @@
     </row>
     <row r="4" spans="1:28" hidden="1">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1512,7 +1513,7 @@
     </row>
     <row r="5" spans="1:28" hidden="1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1556,7 +1557,7 @@
     </row>
     <row r="6" spans="1:28" hidden="1">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1600,7 +1601,7 @@
     </row>
     <row r="7" spans="1:28" hidden="1">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1644,7 +1645,7 @@
     </row>
     <row r="8" spans="1:28" hidden="1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1688,7 +1689,7 @@
     </row>
     <row r="9" spans="1:28" hidden="1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1732,7 +1733,7 @@
     </row>
     <row r="10" spans="1:28" hidden="1">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1776,7 +1777,7 @@
     </row>
     <row r="11" spans="1:28" hidden="1">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1820,7 +1821,7 @@
     </row>
     <row r="12" spans="1:28" hidden="1">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1864,7 +1865,7 @@
     </row>
     <row r="13" spans="1:28" hidden="1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1908,7 +1909,7 @@
     </row>
     <row r="14" spans="1:28" hidden="1">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1952,7 +1953,7 @@
     </row>
     <row r="15" spans="1:28" hidden="1">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1996,7 +1997,7 @@
     </row>
     <row r="16" spans="1:28" hidden="1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2040,7 +2041,7 @@
     </row>
     <row r="17" spans="1:28" hidden="1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2084,7 +2085,7 @@
     </row>
     <row r="18" spans="1:28" hidden="1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2125,7 +2126,7 @@
     </row>
     <row r="19" spans="1:28" hidden="1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2160,7 +2161,7 @@
     </row>
     <row r="20" spans="1:28" hidden="1">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2201,7 +2202,7 @@
     </row>
     <row r="21" spans="1:28" hidden="1">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2245,7 +2246,7 @@
     </row>
     <row r="22" spans="1:28" hidden="1">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2286,7 +2287,7 @@
     </row>
     <row r="23" spans="1:28" hidden="1">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2330,7 +2331,7 @@
     </row>
     <row r="24" spans="1:28" hidden="1">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2371,7 +2372,7 @@
     </row>
     <row r="25" spans="1:28" hidden="1">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2415,7 +2416,7 @@
     </row>
     <row r="26" spans="1:28" hidden="1">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2441,7 +2442,7 @@
     </row>
     <row r="27" spans="1:28" hidden="1">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2467,7 +2468,7 @@
     </row>
     <row r="28" spans="1:28" hidden="1">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2493,7 +2494,7 @@
     </row>
     <row r="29" spans="1:28" hidden="1">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2519,7 +2520,7 @@
     </row>
     <row r="30" spans="1:28" hidden="1">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2548,7 +2549,7 @@
     </row>
     <row r="31" spans="1:28" hidden="1">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2574,7 +2575,7 @@
     </row>
     <row r="32" spans="1:28" hidden="1">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2600,7 +2601,7 @@
     </row>
     <row r="33" spans="1:28" hidden="1">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2626,7 +2627,7 @@
     </row>
     <row r="34" spans="1:28" hidden="1">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2652,7 +2653,7 @@
     </row>
     <row r="35" spans="1:28" hidden="1">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2681,7 +2682,7 @@
     </row>
     <row r="36" spans="1:28" hidden="1">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2707,7 +2708,7 @@
     </row>
     <row r="37" spans="1:28" hidden="1">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -2733,7 +2734,7 @@
     </row>
     <row r="38" spans="1:28" hidden="1">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -2759,7 +2760,7 @@
     </row>
     <row r="39" spans="1:28" hidden="1">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2785,7 +2786,7 @@
     </row>
     <row r="40" spans="1:28" hidden="1">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -2814,7 +2815,7 @@
     </row>
     <row r="41" spans="1:28" hidden="1">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2840,7 +2841,7 @@
     </row>
     <row r="42" spans="1:28" hidden="1">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -2866,7 +2867,7 @@
     </row>
     <row r="43" spans="1:28" hidden="1">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2895,7 +2896,7 @@
     </row>
     <row r="44" spans="1:28" hidden="1">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2921,7 +2922,7 @@
     </row>
     <row r="45" spans="1:28" hidden="1">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -2947,7 +2948,7 @@
     </row>
     <row r="46" spans="1:28" hidden="1">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -2976,7 +2977,7 @@
     </row>
     <row r="47" spans="1:28" hidden="1">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -2999,7 +3000,7 @@
     </row>
     <row r="48" spans="1:28" hidden="1">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3022,7 +3023,7 @@
     </row>
     <row r="49" spans="1:28" hidden="1">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -3048,7 +3049,7 @@
     </row>
     <row r="50" spans="1:28" hidden="1">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3074,7 +3075,7 @@
     </row>
     <row r="51" spans="1:28" hidden="1">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -3100,7 +3101,7 @@
     </row>
     <row r="52" spans="1:28" hidden="1">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3126,7 +3127,7 @@
     </row>
     <row r="53" spans="1:28" hidden="1">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -3155,7 +3156,7 @@
     </row>
     <row r="54" spans="1:28" hidden="1">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -3181,7 +3182,7 @@
     </row>
     <row r="55" spans="1:28" hidden="1">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3207,7 +3208,7 @@
     </row>
     <row r="56" spans="1:28" hidden="1">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -3233,7 +3234,7 @@
     </row>
     <row r="57" spans="1:28" hidden="1">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -3259,7 +3260,7 @@
     </row>
     <row r="58" spans="1:28" hidden="1">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -3288,7 +3289,7 @@
     </row>
     <row r="59" spans="1:28" hidden="1">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -3314,7 +3315,7 @@
     </row>
     <row r="60" spans="1:28" hidden="1">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -3340,7 +3341,7 @@
     </row>
     <row r="61" spans="1:28" hidden="1">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -3369,7 +3370,7 @@
     </row>
     <row r="62" spans="1:28" hidden="1">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -3395,7 +3396,7 @@
     </row>
     <row r="63" spans="1:28" hidden="1">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -3421,7 +3422,7 @@
     </row>
     <row r="64" spans="1:28" hidden="1">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -3450,7 +3451,7 @@
     </row>
     <row r="65" spans="1:28" hidden="1">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -3476,7 +3477,7 @@
     </row>
     <row r="66" spans="1:28" hidden="1">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -3502,7 +3503,7 @@
     </row>
     <row r="67" spans="1:28" hidden="1">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -3531,7 +3532,7 @@
     </row>
     <row r="68" spans="1:28" hidden="1">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -3557,7 +3558,7 @@
     </row>
     <row r="69" spans="1:28" hidden="1">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -3583,7 +3584,7 @@
     </row>
     <row r="70" spans="1:28" hidden="1">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -3612,7 +3613,7 @@
     </row>
     <row r="71" spans="1:28" hidden="1">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3638,7 +3639,7 @@
     </row>
     <row r="72" spans="1:28" hidden="1">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3664,7 +3665,7 @@
     </row>
     <row r="73" spans="1:28" hidden="1">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3690,7 +3691,7 @@
     </row>
     <row r="74" spans="1:28" hidden="1">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3716,7 +3717,7 @@
     </row>
     <row r="75" spans="1:28" hidden="1">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3742,7 +3743,7 @@
     </row>
     <row r="76" spans="1:28" hidden="1">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3768,7 +3769,7 @@
     </row>
     <row r="77" spans="1:28" hidden="1">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3794,7 +3795,7 @@
     </row>
     <row r="78" spans="1:28" hidden="1">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3820,7 +3821,7 @@
     </row>
     <row r="79" spans="1:28" hidden="1">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3843,7 +3844,7 @@
     </row>
     <row r="80" spans="1:28" hidden="1">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3869,7 +3870,7 @@
     </row>
     <row r="81" spans="1:28" hidden="1">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3892,7 +3893,7 @@
     </row>
     <row r="82" spans="1:28" hidden="1">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="83" spans="1:28" hidden="1">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3941,7 +3942,7 @@
     </row>
     <row r="84" spans="1:28" hidden="1">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3967,7 +3968,7 @@
     </row>
     <row r="85" spans="1:28" hidden="1">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3990,7 +3991,7 @@
     </row>
     <row r="86" spans="1:28" hidden="1">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4016,7 +4017,7 @@
     </row>
     <row r="87" spans="1:28" hidden="1">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="88" spans="1:28" hidden="1">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4065,7 +4066,7 @@
     </row>
     <row r="89" spans="1:28" hidden="1">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4088,7 +4089,7 @@
     </row>
     <row r="90" spans="1:28" hidden="1">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4114,7 +4115,7 @@
     </row>
     <row r="91" spans="1:28" hidden="1">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4140,7 +4141,7 @@
     </row>
     <row r="92" spans="1:28" hidden="1">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4166,7 +4167,7 @@
     </row>
     <row r="93" spans="1:28" hidden="1">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4192,7 +4193,7 @@
     </row>
     <row r="94" spans="1:28" hidden="1">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4218,7 +4219,7 @@
     </row>
     <row r="95" spans="1:28" hidden="1">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4244,7 +4245,7 @@
     </row>
     <row r="96" spans="1:28" hidden="1">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4270,7 +4271,7 @@
     </row>
     <row r="97" spans="1:28" hidden="1">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4296,7 +4297,7 @@
     </row>
     <row r="98" spans="1:28" hidden="1">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4322,7 +4323,7 @@
     </row>
     <row r="99" spans="1:28" hidden="1">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4348,7 +4349,7 @@
     </row>
     <row r="100" spans="1:28" hidden="1">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4374,7 +4375,7 @@
     </row>
     <row r="101" spans="1:28" hidden="1">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4400,7 +4401,7 @@
     </row>
     <row r="102" spans="1:28" hidden="1">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4426,7 +4427,7 @@
     </row>
     <row r="103" spans="1:28" hidden="1">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4452,7 +4453,7 @@
     </row>
     <row r="104" spans="1:28" hidden="1">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4478,7 +4479,7 @@
     </row>
     <row r="105" spans="1:28" hidden="1">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -4504,7 +4505,7 @@
     </row>
     <row r="106" spans="1:28" hidden="1">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4530,7 +4531,7 @@
     </row>
     <row r="107" spans="1:28" hidden="1">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4562,7 +4563,7 @@
     </row>
     <row r="108" spans="1:28" hidden="1">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4594,7 +4595,7 @@
     </row>
     <row r="109" spans="1:28" hidden="1">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4626,7 +4627,7 @@
     </row>
     <row r="110" spans="1:28" hidden="1">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="111" spans="1:28" hidden="1">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4690,7 +4691,7 @@
     </row>
     <row r="112" spans="1:28" hidden="1">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4722,7 +4723,7 @@
     </row>
     <row r="113" spans="1:28" hidden="1">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4754,7 +4755,7 @@
     </row>
     <row r="114" spans="1:28" hidden="1">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4786,7 +4787,7 @@
     </row>
     <row r="115" spans="1:28" hidden="1">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4818,7 +4819,7 @@
     </row>
     <row r="116" spans="1:28" hidden="1">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4850,7 +4851,7 @@
     </row>
     <row r="117" spans="1:28" hidden="1">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4882,7 +4883,7 @@
     </row>
     <row r="118" spans="1:28" hidden="1">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4914,7 +4915,7 @@
     </row>
     <row r="119" spans="1:28" hidden="1">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4946,7 +4947,7 @@
     </row>
     <row r="120" spans="1:28" hidden="1">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="121" spans="1:28" hidden="1">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5010,7 +5011,7 @@
     </row>
     <row r="122" spans="1:28" hidden="1">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -5042,7 +5043,7 @@
     </row>
     <row r="123" spans="1:28" hidden="1">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -5074,7 +5075,7 @@
     </row>
     <row r="124" spans="1:28" hidden="1">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -5106,7 +5107,7 @@
     </row>
     <row r="125" spans="1:28" hidden="1">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5138,7 +5139,7 @@
     </row>
     <row r="126" spans="1:28" hidden="1">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5170,7 +5171,7 @@
     </row>
     <row r="127" spans="1:28" hidden="1">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -5202,7 +5203,7 @@
     </row>
     <row r="128" spans="1:28" hidden="1">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -5234,7 +5235,7 @@
     </row>
     <row r="129" spans="1:28" hidden="1">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -5266,7 +5267,7 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -5292,7 +5293,7 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -5318,7 +5319,7 @@
     </row>
     <row r="132" spans="1:28">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5350,7 +5351,7 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -5376,7 +5377,7 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5402,7 +5403,7 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -5428,7 +5429,7 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -5460,7 +5461,7 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5489,7 +5490,7 @@
     </row>
     <row r="138" spans="1:28">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5515,7 +5516,7 @@
     </row>
     <row r="139" spans="1:28">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5541,7 +5542,7 @@
     </row>
     <row r="140" spans="1:28">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5567,7 +5568,7 @@
     </row>
     <row r="141" spans="1:28">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5593,7 +5594,7 @@
     </row>
     <row r="142" spans="1:28">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5619,7 +5620,7 @@
     </row>
     <row r="143" spans="1:28">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5645,7 +5646,7 @@
     </row>
     <row r="144" spans="1:28">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5671,7 +5672,7 @@
     </row>
     <row r="145" spans="1:28">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5700,7 +5701,7 @@
     </row>
     <row r="146" spans="1:28">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5726,7 +5727,7 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5775,7 +5776,7 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5801,7 +5802,7 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5830,7 +5831,7 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5859,7 +5860,7 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5885,7 +5886,7 @@
     </row>
     <row r="153" spans="1:28">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -5911,7 +5912,7 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -5937,7 +5938,7 @@
     </row>
     <row r="155" spans="1:28">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -5963,7 +5964,7 @@
     </row>
     <row r="156" spans="1:28">
       <c r="A156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -5995,7 +5996,7 @@
     </row>
     <row r="157" spans="1:28">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -6021,7 +6022,7 @@
     </row>
     <row r="158" spans="1:28">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -6047,7 +6048,7 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -6073,7 +6074,7 @@
     </row>
     <row r="160" spans="1:28">
       <c r="A160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -6102,7 +6103,7 @@
     </row>
     <row r="161" spans="1:28">
       <c r="A161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -6131,7 +6132,7 @@
     </row>
     <row r="162" spans="1:28">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -6157,7 +6158,7 @@
     </row>
     <row r="163" spans="1:28">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -6183,7 +6184,7 @@
     </row>
     <row r="164" spans="1:28">
       <c r="A164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -6209,7 +6210,7 @@
     </row>
     <row r="165" spans="1:28">
       <c r="A165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -6235,7 +6236,7 @@
     </row>
     <row r="166" spans="1:28">
       <c r="A166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -6261,7 +6262,7 @@
     </row>
     <row r="167" spans="1:28">
       <c r="A167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -6287,7 +6288,7 @@
     </row>
     <row r="168" spans="1:28">
       <c r="A168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -6313,7 +6314,7 @@
     </row>
     <row r="169" spans="1:28">
       <c r="A169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -6342,7 +6343,7 @@
     </row>
     <row r="170" spans="1:28">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -6368,7 +6369,7 @@
     </row>
     <row r="171" spans="1:28">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -6391,7 +6392,7 @@
     </row>
     <row r="172" spans="1:28">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -6417,7 +6418,7 @@
     </row>
     <row r="173" spans="1:28">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -6443,7 +6444,7 @@
     </row>
     <row r="174" spans="1:28">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -6469,7 +6470,7 @@
     </row>
     <row r="175" spans="1:28">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -6495,7 +6496,7 @@
     </row>
     <row r="176" spans="1:28">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -6521,7 +6522,7 @@
     </row>
     <row r="177" spans="1:28">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -6547,7 +6548,7 @@
     </row>
     <row r="178" spans="1:28">
       <c r="A178" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -6573,7 +6574,7 @@
     </row>
     <row r="179" spans="1:28">
       <c r="A179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -6599,7 +6600,7 @@
     </row>
     <row r="180" spans="1:28">
       <c r="A180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -6625,7 +6626,7 @@
     </row>
     <row r="181" spans="1:28">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -6654,7 +6655,7 @@
     </row>
     <row r="182" spans="1:28">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -6680,7 +6681,7 @@
     </row>
     <row r="183" spans="1:28">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -6709,7 +6710,7 @@
     </row>
     <row r="184" spans="1:28">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -6735,7 +6736,7 @@
     </row>
     <row r="185" spans="1:28">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -6761,7 +6762,7 @@
     </row>
     <row r="186" spans="1:28">
       <c r="A186" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -6787,7 +6788,7 @@
     </row>
     <row r="187" spans="1:28" hidden="1">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -6822,7 +6823,7 @@
     </row>
     <row r="188" spans="1:28" hidden="1">
       <c r="A188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -6857,7 +6858,7 @@
     </row>
     <row r="189" spans="1:28" hidden="1">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -6895,7 +6896,7 @@
     </row>
     <row r="190" spans="1:28" hidden="1">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -6936,7 +6937,7 @@
     </row>
     <row r="191" spans="1:28" hidden="1">
       <c r="A191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -6977,7 +6978,7 @@
     </row>
     <row r="192" spans="1:28" hidden="1">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -7018,7 +7019,7 @@
     </row>
     <row r="193" spans="1:28" hidden="1">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -7059,7 +7060,7 @@
     </row>
     <row r="194" spans="1:28" hidden="1">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -7100,7 +7101,7 @@
     </row>
     <row r="195" spans="1:28" hidden="1">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -7141,7 +7142,7 @@
     </row>
     <row r="196" spans="1:28" hidden="1">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -7182,7 +7183,7 @@
     </row>
     <row r="197" spans="1:28" hidden="1">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -7223,7 +7224,7 @@
     </row>
     <row r="198" spans="1:28" hidden="1">
       <c r="A198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -7264,7 +7265,7 @@
     </row>
     <row r="199" spans="1:28" hidden="1">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -7305,7 +7306,7 @@
     </row>
     <row r="200" spans="1:28" hidden="1">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -7346,7 +7347,7 @@
     </row>
     <row r="201" spans="1:28" hidden="1">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -7387,7 +7388,7 @@
     </row>
     <row r="202" spans="1:28" hidden="1">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -7428,7 +7429,7 @@
     </row>
     <row r="203" spans="1:28" hidden="1">
       <c r="A203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -7469,7 +7470,7 @@
     </row>
     <row r="204" spans="1:28" hidden="1">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -7507,7 +7508,7 @@
     </row>
     <row r="205" spans="1:28" hidden="1">
       <c r="A205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -7548,7 +7549,7 @@
     </row>
     <row r="206" spans="1:28" hidden="1">
       <c r="A206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -7589,7 +7590,7 @@
     </row>
     <row r="207" spans="1:28" hidden="1">
       <c r="A207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -7630,7 +7631,7 @@
     </row>
     <row r="208" spans="1:28" hidden="1">
       <c r="A208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -7668,7 +7669,7 @@
     </row>
     <row r="209" spans="1:28" hidden="1">
       <c r="A209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -7709,7 +7710,7 @@
     </row>
     <row r="210" spans="1:28" hidden="1">
       <c r="A210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -7750,7 +7751,7 @@
     </row>
     <row r="211" spans="1:28" hidden="1">
       <c r="A211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -7791,7 +7792,7 @@
     </row>
     <row r="212" spans="1:28" hidden="1">
       <c r="A212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -7832,7 +7833,7 @@
     </row>
     <row r="213" spans="1:28" hidden="1">
       <c r="A213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -7873,7 +7874,7 @@
     </row>
     <row r="214" spans="1:28" hidden="1">
       <c r="A214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -7914,7 +7915,7 @@
     </row>
     <row r="215" spans="1:28" hidden="1">
       <c r="A215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -7955,7 +7956,7 @@
     </row>
     <row r="216" spans="1:28" hidden="1">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -7996,7 +7997,7 @@
     </row>
     <row r="217" spans="1:28" hidden="1">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -8037,7 +8038,7 @@
     </row>
     <row r="218" spans="1:28" hidden="1">
       <c r="A218" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -8078,7 +8079,7 @@
     </row>
     <row r="219" spans="1:28" hidden="1">
       <c r="A219" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -8119,7 +8120,7 @@
     </row>
     <row r="220" spans="1:28" hidden="1">
       <c r="A220" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -8160,7 +8161,7 @@
     </row>
     <row r="221" spans="1:28" hidden="1">
       <c r="A221" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -8201,7 +8202,7 @@
     </row>
     <row r="222" spans="1:28" hidden="1">
       <c r="A222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8242,7 +8243,7 @@
     </row>
     <row r="223" spans="1:28" hidden="1">
       <c r="A223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -8283,7 +8284,7 @@
     </row>
     <row r="224" spans="1:28" hidden="1">
       <c r="A224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -8321,7 +8322,7 @@
     </row>
     <row r="225" spans="1:28" hidden="1">
       <c r="A225" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -8362,7 +8363,7 @@
     </row>
     <row r="226" spans="1:28" hidden="1">
       <c r="A226" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -8403,7 +8404,7 @@
     </row>
     <row r="227" spans="1:28" hidden="1">
       <c r="A227" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -8444,7 +8445,7 @@
     </row>
     <row r="228" spans="1:28" hidden="1">
       <c r="A228" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -8482,7 +8483,7 @@
     </row>
     <row r="229" spans="1:28" hidden="1">
       <c r="A229" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -8523,7 +8524,7 @@
     </row>
     <row r="230" spans="1:28" hidden="1">
       <c r="A230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -8564,7 +8565,7 @@
     </row>
     <row r="231" spans="1:28" hidden="1">
       <c r="A231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -8605,7 +8606,7 @@
     </row>
     <row r="232" spans="1:28" hidden="1">
       <c r="A232" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -8646,7 +8647,7 @@
     </row>
     <row r="233" spans="1:28" hidden="1">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -8681,7 +8682,7 @@
     </row>
     <row r="234" spans="1:28" hidden="1">
       <c r="A234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -8716,7 +8717,7 @@
     </row>
     <row r="235" spans="1:28" hidden="1">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -8754,7 +8755,7 @@
     </row>
     <row r="236" spans="1:28" hidden="1">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -8795,7 +8796,7 @@
     </row>
     <row r="237" spans="1:28" hidden="1">
       <c r="A237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -8836,7 +8837,7 @@
     </row>
     <row r="238" spans="1:28" hidden="1">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -8874,7 +8875,7 @@
     </row>
     <row r="239" spans="1:28" hidden="1">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -8915,7 +8916,7 @@
     </row>
     <row r="240" spans="1:28" hidden="1">
       <c r="A240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -8956,7 +8957,7 @@
     </row>
     <row r="241" spans="1:28" hidden="1">
       <c r="A241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -8997,7 +8998,7 @@
     </row>
     <row r="242" spans="1:28" hidden="1">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -9035,7 +9036,7 @@
     </row>
     <row r="243" spans="1:28" hidden="1">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -9076,7 +9077,7 @@
     </row>
     <row r="244" spans="1:28" hidden="1">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -9117,7 +9118,7 @@
     </row>
     <row r="245" spans="1:28" hidden="1">
       <c r="A245" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -9158,7 +9159,7 @@
     </row>
     <row r="246" spans="1:28" hidden="1">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -9196,7 +9197,7 @@
     </row>
     <row r="247" spans="1:28" hidden="1">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -9237,7 +9238,7 @@
     </row>
     <row r="248" spans="1:28" hidden="1">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -9278,7 +9279,7 @@
     </row>
     <row r="249" spans="1:28" hidden="1">
       <c r="A249" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -9319,7 +9320,7 @@
     </row>
     <row r="250" spans="1:28" hidden="1">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -9357,7 +9358,7 @@
     </row>
     <row r="251" spans="1:28" hidden="1">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -9398,7 +9399,7 @@
     </row>
     <row r="252" spans="1:28" hidden="1">
       <c r="A252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -9439,7 +9440,7 @@
     </row>
     <row r="253" spans="1:28" hidden="1">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -9480,7 +9481,7 @@
     </row>
     <row r="254" spans="1:28" hidden="1">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -9518,7 +9519,7 @@
     </row>
     <row r="255" spans="1:28" hidden="1">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -9559,7 +9560,7 @@
     </row>
     <row r="256" spans="1:28" hidden="1">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -9600,7 +9601,7 @@
     </row>
     <row r="257" spans="1:28" hidden="1">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -9641,7 +9642,7 @@
     </row>
     <row r="258" spans="1:28" hidden="1">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -9679,7 +9680,7 @@
     </row>
     <row r="259" spans="1:28" hidden="1">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -9720,7 +9721,7 @@
     </row>
     <row r="260" spans="1:28" hidden="1">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -9761,7 +9762,7 @@
     </row>
     <row r="261" spans="1:28" hidden="1">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -9802,7 +9803,7 @@
     </row>
     <row r="262" spans="1:28" hidden="1">
       <c r="A262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -9843,7 +9844,7 @@
     </row>
     <row r="263" spans="1:28" hidden="1">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -9884,7 +9885,7 @@
     </row>
     <row r="264" spans="1:28" hidden="1">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -9925,7 +9926,7 @@
     </row>
     <row r="265" spans="1:28" hidden="1">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B265">
         <v>2</v>
@@ -9966,7 +9967,7 @@
     </row>
     <row r="266" spans="1:28" hidden="1">
       <c r="A266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -10004,7 +10005,7 @@
     </row>
     <row r="267" spans="1:28" hidden="1">
       <c r="A267" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -10045,7 +10046,7 @@
     </row>
     <row r="268" spans="1:28" hidden="1">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -10086,7 +10087,7 @@
     </row>
     <row r="269" spans="1:28" hidden="1">
       <c r="A269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -10127,7 +10128,7 @@
     </row>
     <row r="270" spans="1:28" hidden="1">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -10168,7 +10169,7 @@
     </row>
     <row r="271" spans="1:28" hidden="1">
       <c r="A271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -10209,7 +10210,7 @@
     </row>
     <row r="272" spans="1:28" hidden="1">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -10250,7 +10251,7 @@
     </row>
     <row r="273" spans="1:29" hidden="1">
       <c r="A273" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -10291,7 +10292,7 @@
     </row>
     <row r="274" spans="1:29" hidden="1">
       <c r="A274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B274">
         <v>2</v>
@@ -10329,7 +10330,7 @@
     </row>
     <row r="275" spans="1:29" hidden="1">
       <c r="A275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -10370,7 +10371,7 @@
     </row>
     <row r="276" spans="1:29" hidden="1">
       <c r="A276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -10411,7 +10412,7 @@
     </row>
     <row r="277" spans="1:29" hidden="1">
       <c r="A277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -10452,7 +10453,7 @@
     </row>
     <row r="278" spans="1:29" hidden="1">
       <c r="A278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B278">
         <v>2</v>
@@ -10487,7 +10488,7 @@
     </row>
     <row r="279" spans="1:29" hidden="1">
       <c r="A279" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -10528,7 +10529,7 @@
     </row>
     <row r="280" spans="1:29" hidden="1">
       <c r="A280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -10557,7 +10558,7 @@
     </row>
     <row r="281" spans="1:29" hidden="1">
       <c r="A281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -10596,7 +10597,7 @@
     </row>
     <row r="282" spans="1:29" hidden="1">
       <c r="A282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -10635,7 +10636,7 @@
     </row>
     <row r="283" spans="1:29" hidden="1">
       <c r="A283" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="284" spans="1:29" hidden="1">
       <c r="A284" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -10694,7 +10695,7 @@
     </row>
     <row r="285" spans="1:29" hidden="1">
       <c r="A285" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -10728,7 +10729,7 @@
     </row>
     <row r="286" spans="1:29" hidden="1">
       <c r="A286" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -10767,7 +10768,7 @@
     </row>
     <row r="287" spans="1:29" hidden="1">
       <c r="A287" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -10812,7 +10813,7 @@
     </row>
     <row r="288" spans="1:29" hidden="1">
       <c r="A288" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -10851,7 +10852,7 @@
     </row>
     <row r="289" spans="1:29" hidden="1">
       <c r="A289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -10896,7 +10897,7 @@
     </row>
     <row r="290" spans="1:29" hidden="1">
       <c r="A290" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -10929,7 +10930,7 @@
     </row>
     <row r="291" spans="1:29" hidden="1">
       <c r="A291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -10958,7 +10959,7 @@
     </row>
     <row r="292" spans="1:29" hidden="1">
       <c r="A292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -10994,7 +10995,7 @@
     </row>
     <row r="293" spans="1:29" hidden="1">
       <c r="A293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -11033,7 +11034,7 @@
     </row>
     <row r="294" spans="1:29" hidden="1">
       <c r="A294" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -11072,7 +11073,7 @@
     </row>
     <row r="295" spans="1:29" hidden="1">
       <c r="A295" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -11108,7 +11109,7 @@
     </row>
     <row r="296" spans="1:29" hidden="1">
       <c r="A296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -11137,7 +11138,7 @@
     </row>
     <row r="297" spans="1:29" hidden="1">
       <c r="A297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -11166,7 +11167,7 @@
     </row>
     <row r="298" spans="1:29" hidden="1">
       <c r="A298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -11195,7 +11196,7 @@
     </row>
     <row r="299" spans="1:29" hidden="1">
       <c r="A299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -11231,7 +11232,7 @@
     </row>
     <row r="300" spans="1:29" hidden="1">
       <c r="A300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -11261,7 +11262,7 @@
     </row>
     <row r="301" spans="1:29" hidden="1">
       <c r="A301" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -11294,7 +11295,7 @@
     </row>
     <row r="302" spans="1:29" hidden="1">
       <c r="A302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -11323,7 +11324,7 @@
     </row>
     <row r="303" spans="1:29" hidden="1">
       <c r="A303" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -11352,7 +11353,7 @@
     </row>
     <row r="304" spans="1:29" hidden="1">
       <c r="A304" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -11381,7 +11382,7 @@
     </row>
     <row r="305" spans="1:29" hidden="1">
       <c r="A305" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -11415,7 +11416,7 @@
     </row>
     <row r="306" spans="1:29" hidden="1">
       <c r="A306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -11444,7 +11445,7 @@
     </row>
     <row r="307" spans="1:29" hidden="1">
       <c r="A307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -11473,7 +11474,7 @@
     </row>
     <row r="308" spans="1:29" hidden="1">
       <c r="A308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -11509,7 +11510,7 @@
     </row>
     <row r="309" spans="1:29" hidden="1">
       <c r="A309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -11548,7 +11549,7 @@
     </row>
     <row r="310" spans="1:29" hidden="1">
       <c r="A310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -11593,7 +11594,7 @@
     </row>
     <row r="311" spans="1:29" hidden="1">
       <c r="A311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -11638,7 +11639,7 @@
     </row>
     <row r="312" spans="1:29" hidden="1">
       <c r="A312" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -11668,7 +11669,7 @@
     </row>
     <row r="313" spans="1:29" hidden="1">
       <c r="A313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -11707,7 +11708,7 @@
     </row>
     <row r="314" spans="1:29" hidden="1">
       <c r="A314" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -11752,7 +11753,7 @@
     </row>
     <row r="315" spans="1:29" hidden="1">
       <c r="A315" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -11797,7 +11798,7 @@
     </row>
     <row r="316" spans="1:29" hidden="1">
       <c r="A316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -11842,7 +11843,7 @@
     </row>
     <row r="317" spans="1:29" hidden="1">
       <c r="A317" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -11887,7 +11888,7 @@
     </row>
     <row r="318" spans="1:29" hidden="1">
       <c r="A318" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -11916,7 +11917,7 @@
     </row>
     <row r="319" spans="1:29" hidden="1">
       <c r="A319" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -11955,7 +11956,7 @@
     </row>
     <row r="320" spans="1:29" hidden="1">
       <c r="A320" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -12000,7 +12001,7 @@
     </row>
     <row r="321" spans="1:29" hidden="1">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -12027,7 +12028,7 @@
     </row>
     <row r="322" spans="1:29" hidden="1">
       <c r="A322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -12069,7 +12070,7 @@
     </row>
     <row r="323" spans="1:29" hidden="1">
       <c r="A323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -12114,7 +12115,7 @@
     </row>
     <row r="324" spans="1:29" hidden="1">
       <c r="A324" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -12159,7 +12160,7 @@
     </row>
     <row r="325" spans="1:29" hidden="1">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -12188,7 +12189,7 @@
     </row>
     <row r="326" spans="1:29" hidden="1">
       <c r="A326" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -12233,7 +12234,7 @@
     </row>
     <row r="327" spans="1:29" hidden="1">
       <c r="A327" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -12278,7 +12279,7 @@
     </row>
     <row r="328" spans="1:29" hidden="1">
       <c r="A328" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -12323,7 +12324,7 @@
     </row>
     <row r="329" spans="1:29" hidden="1">
       <c r="A329" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -12368,7 +12369,7 @@
     </row>
     <row r="330" spans="1:29" hidden="1">
       <c r="A330" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -12397,7 +12398,7 @@
     </row>
     <row r="331" spans="1:29" hidden="1">
       <c r="A331" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -12442,7 +12443,7 @@
     </row>
     <row r="332" spans="1:29" hidden="1">
       <c r="A332" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -12487,7 +12488,7 @@
     </row>
     <row r="333" spans="1:29" hidden="1">
       <c r="A333" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -12532,7 +12533,7 @@
     </row>
     <row r="334" spans="1:29" hidden="1">
       <c r="A334" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -12577,7 +12578,7 @@
     </row>
     <row r="335" spans="1:29" hidden="1">
       <c r="A335" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -12620,7 +12621,7 @@
     </row>
     <row r="336" spans="1:29" hidden="1">
       <c r="A336" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -12665,7 +12666,7 @@
     </row>
     <row r="337" spans="1:29" hidden="1">
       <c r="A337" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -12707,7 +12708,7 @@
     </row>
     <row r="338" spans="1:29" hidden="1">
       <c r="A338" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -12734,7 +12735,7 @@
     </row>
     <row r="339" spans="1:29" hidden="1">
       <c r="A339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -12773,7 +12774,7 @@
     </row>
     <row r="340" spans="1:29" hidden="1">
       <c r="A340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -12818,7 +12819,7 @@
     </row>
     <row r="341" spans="1:29" hidden="1">
       <c r="A341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -12863,7 +12864,7 @@
     </row>
     <row r="342" spans="1:29" hidden="1">
       <c r="A342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -12908,7 +12909,7 @@
     </row>
     <row r="343" spans="1:29" hidden="1">
       <c r="A343" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -12937,7 +12938,7 @@
     </row>
     <row r="344" spans="1:29" hidden="1">
       <c r="A344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -12966,7 +12967,7 @@
     </row>
     <row r="345" spans="1:29" hidden="1">
       <c r="A345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -12993,7 +12994,7 @@
     </row>
     <row r="346" spans="1:29" hidden="1">
       <c r="A346" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -13025,7 +13026,7 @@
     </row>
     <row r="347" spans="1:29" hidden="1">
       <c r="A347" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -13054,7 +13055,7 @@
     </row>
     <row r="348" spans="1:29" hidden="1">
       <c r="A348" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -13086,7 +13087,7 @@
     </row>
     <row r="349" spans="1:29" hidden="1">
       <c r="A349" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -13118,7 +13119,7 @@
     </row>
     <row r="350" spans="1:29" hidden="1">
       <c r="A350" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -13150,7 +13151,7 @@
     </row>
     <row r="351" spans="1:29" hidden="1">
       <c r="A351" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -13182,7 +13183,7 @@
     </row>
     <row r="352" spans="1:29" hidden="1">
       <c r="A352" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -13211,7 +13212,7 @@
     </row>
     <row r="353" spans="1:29" hidden="1">
       <c r="A353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -13240,7 +13241,7 @@
     </row>
     <row r="354" spans="1:29" hidden="1">
       <c r="A354" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -13272,7 +13273,7 @@
     </row>
     <row r="355" spans="1:29" hidden="1">
       <c r="A355" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -13304,7 +13305,7 @@
     </row>
     <row r="356" spans="1:29" hidden="1">
       <c r="A356" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -13336,7 +13337,7 @@
     </row>
     <row r="357" spans="1:29" hidden="1">
       <c r="A357" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -13368,7 +13369,7 @@
     </row>
     <row r="358" spans="1:29" hidden="1">
       <c r="A358" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -13400,7 +13401,7 @@
     </row>
     <row r="359" spans="1:29" hidden="1">
       <c r="A359" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -13430,7 +13431,7 @@
     </row>
     <row r="360" spans="1:29" hidden="1">
       <c r="A360" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -13460,7 +13461,7 @@
     </row>
     <row r="361" spans="1:29" hidden="1">
       <c r="A361" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -13490,7 +13491,7 @@
     </row>
     <row r="362" spans="1:29" hidden="1">
       <c r="A362" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -13517,7 +13518,7 @@
     </row>
     <row r="363" spans="1:29" hidden="1">
       <c r="A363" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -13544,7 +13545,7 @@
     </row>
     <row r="364" spans="1:29" hidden="1">
       <c r="A364" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -13574,7 +13575,7 @@
     </row>
     <row r="365" spans="1:29" hidden="1">
       <c r="A365" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -13604,7 +13605,7 @@
     </row>
     <row r="366" spans="1:29" hidden="1">
       <c r="A366" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -13631,7 +13632,7 @@
     </row>
     <row r="367" spans="1:29" hidden="1">
       <c r="A367" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -13658,7 +13659,7 @@
     </row>
     <row r="368" spans="1:29" hidden="1">
       <c r="A368" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -13690,7 +13691,7 @@
     </row>
     <row r="369" spans="1:29" hidden="1">
       <c r="A369" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -13719,7 +13720,7 @@
     </row>
     <row r="370" spans="1:29" hidden="1">
       <c r="A370" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -13751,7 +13752,7 @@
     </row>
     <row r="371" spans="1:29" hidden="1">
       <c r="A371" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -13783,7 +13784,7 @@
     </row>
     <row r="372" spans="1:29" hidden="1">
       <c r="A372" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -13812,7 +13813,7 @@
     </row>
     <row r="373" spans="1:29" hidden="1">
       <c r="A373" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -13844,7 +13845,7 @@
     </row>
     <row r="374" spans="1:29" hidden="1">
       <c r="A374" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -13873,7 +13874,7 @@
     </row>
     <row r="375" spans="1:29" hidden="1">
       <c r="A375" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -13905,7 +13906,7 @@
     </row>
     <row r="376" spans="1:29" hidden="1">
       <c r="A376" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -13934,7 +13935,7 @@
     </row>
     <row r="377" spans="1:29" hidden="1">
       <c r="A377" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -13966,7 +13967,7 @@
     </row>
     <row r="378" spans="1:29" hidden="1">
       <c r="A378" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -13998,7 +13999,7 @@
     </row>
     <row r="379" spans="1:29" hidden="1">
       <c r="A379" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -14030,7 +14031,7 @@
     </row>
     <row r="380" spans="1:29" hidden="1">
       <c r="A380" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -14060,7 +14061,7 @@
     </row>
     <row r="381" spans="1:29" hidden="1">
       <c r="A381" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -14092,7 +14093,7 @@
     </row>
     <row r="382" spans="1:29" hidden="1">
       <c r="A382" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -14124,7 +14125,7 @@
     </row>
     <row r="383" spans="1:29" hidden="1">
       <c r="A383" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -14156,7 +14157,7 @@
     </row>
     <row r="384" spans="1:29" hidden="1">
       <c r="A384" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -14188,7 +14189,7 @@
     </row>
     <row r="385" spans="1:29" hidden="1">
       <c r="A385" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -14220,7 +14221,7 @@
     </row>
     <row r="386" spans="1:29" hidden="1">
       <c r="A386" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -14252,7 +14253,7 @@
     </row>
     <row r="387" spans="1:29" hidden="1">
       <c r="A387" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -14284,7 +14285,7 @@
     </row>
     <row r="388" spans="1:29" hidden="1">
       <c r="A388" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -14316,7 +14317,7 @@
     </row>
     <row r="389" spans="1:29" hidden="1">
       <c r="A389" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B389">
         <v>1</v>

--- a/Prototypes/Lucerne/LucerneAllObs.xlsx
+++ b/Prototypes/Lucerne/LucerneAllObs.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LucerneAllObs!$A$1:$AD$389</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterate="1" iterateCount="99" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1261,7 +1261,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD1015"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1379,7 +1378,7 @@
         <v>Heighterror</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1422,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" hidden="1">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1466,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" hidden="1">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1510,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" hidden="1">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1554,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" hidden="1">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +1598,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" hidden="1">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1643,7 +1642,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" hidden="1">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1686,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" hidden="1">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1730,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" hidden="1">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1774,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" hidden="1">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1819,7 +1818,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" hidden="1">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1862,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" hidden="1">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1907,7 +1906,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" hidden="1">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1951,7 +1950,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" hidden="1">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" hidden="1">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2039,7 +2038,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" hidden="1">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2082,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" hidden="1">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2123,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" hidden="1">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2158,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" hidden="1">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2199,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" hidden="1">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2244,7 +2243,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" hidden="1">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2284,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" hidden="1">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2329,7 +2328,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" hidden="1">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2370,7 +2369,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" hidden="1">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2413,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" hidden="1">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2440,7 +2439,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" hidden="1">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2466,7 +2465,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" hidden="1">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2491,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" hidden="1">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2518,7 +2517,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" hidden="1">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2547,7 +2546,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" hidden="1">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2573,7 +2572,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" hidden="1">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2599,7 +2598,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" hidden="1">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2625,7 +2624,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" hidden="1">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2651,7 +2650,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" hidden="1">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2679,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" hidden="1">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2705,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" hidden="1">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +2731,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" hidden="1">
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2757,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" hidden="1">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2784,7 +2783,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" hidden="1">
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2813,7 +2812,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" hidden="1">
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2839,7 +2838,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:28" hidden="1">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2865,7 +2864,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" hidden="1">
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2894,7 +2893,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" hidden="1">
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" hidden="1">
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2946,7 +2945,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" hidden="1">
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2975,7 +2974,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" hidden="1">
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -2998,7 +2997,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" hidden="1">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3021,7 +3020,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" hidden="1">
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -3047,7 +3046,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" hidden="1">
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" hidden="1">
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3099,7 +3098,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" hidden="1">
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3125,7 +3124,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" hidden="1">
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3153,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" hidden="1">
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3180,7 +3179,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" hidden="1">
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3206,7 +3205,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" hidden="1">
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3231,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" hidden="1">
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3258,7 +3257,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" hidden="1">
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3287,7 +3286,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" hidden="1">
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" hidden="1">
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" hidden="1">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" hidden="1">
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3394,7 +3393,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" hidden="1">
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3420,7 +3419,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" hidden="1">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3449,7 +3448,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="1:28" hidden="1">
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3475,7 +3474,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="1:28" hidden="1">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3501,7 +3500,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="1:28" hidden="1">
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3530,7 +3529,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" spans="1:28" hidden="1">
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +3555,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:28" hidden="1">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3582,7 +3581,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="1:28" hidden="1">
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3610,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="1:28" hidden="1">
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -3637,7 +3636,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="1:28" hidden="1">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -3663,7 +3662,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:28" hidden="1">
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:28" hidden="1">
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +3714,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="1:28" hidden="1">
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3740,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" spans="1:28" hidden="1">
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" hidden="1">
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -3793,7 +3792,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:28" hidden="1">
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:28" hidden="1">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +3841,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:28" hidden="1">
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +3867,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" hidden="1">
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3891,7 +3890,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" hidden="1">
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" hidden="1">
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3940,7 +3939,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" hidden="1">
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -3966,7 +3965,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" hidden="1">
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" hidden="1">
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4014,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" hidden="1">
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -4038,7 +4037,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" hidden="1">
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -4064,7 +4063,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" hidden="1">
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -4087,7 +4086,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" hidden="1">
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" hidden="1">
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" hidden="1">
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4165,7 +4164,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" hidden="1">
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -4191,7 +4190,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" hidden="1">
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4216,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" hidden="1">
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" hidden="1">
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4269,7 +4268,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" hidden="1">
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" hidden="1">
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -4321,7 +4320,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" hidden="1">
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4347,7 +4346,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" hidden="1">
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" hidden="1">
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -4399,7 +4398,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" hidden="1">
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" spans="1:28" hidden="1">
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4451,7 +4450,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="1:28" hidden="1">
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4477,7 +4476,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" spans="1:28" hidden="1">
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -4503,7 +4502,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" spans="1:28" hidden="1">
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -4529,7 +4528,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="107" spans="1:28" hidden="1">
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -4561,7 +4560,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="4"/>
     </row>
-    <row r="108" spans="1:28" hidden="1">
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -4593,7 +4592,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="4"/>
     </row>
-    <row r="109" spans="1:28" hidden="1">
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -4625,7 +4624,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="4"/>
     </row>
-    <row r="110" spans="1:28" hidden="1">
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="4"/>
     </row>
-    <row r="111" spans="1:28" hidden="1">
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -4689,7 +4688,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="4"/>
     </row>
-    <row r="112" spans="1:28" hidden="1">
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -4721,7 +4720,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="4"/>
     </row>
-    <row r="113" spans="1:28" hidden="1">
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="4"/>
     </row>
-    <row r="114" spans="1:28" hidden="1">
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4785,7 +4784,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="4"/>
     </row>
-    <row r="115" spans="1:28" hidden="1">
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -4817,7 +4816,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="4"/>
     </row>
-    <row r="116" spans="1:28" hidden="1">
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -4849,7 +4848,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="4"/>
     </row>
-    <row r="117" spans="1:28" hidden="1">
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +4880,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="4"/>
     </row>
-    <row r="118" spans="1:28" hidden="1">
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -4913,7 +4912,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="4"/>
     </row>
-    <row r="119" spans="1:28" hidden="1">
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -4945,7 +4944,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="4"/>
     </row>
-    <row r="120" spans="1:28" hidden="1">
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="4"/>
     </row>
-    <row r="121" spans="1:28" hidden="1">
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -5009,7 +5008,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="4"/>
     </row>
-    <row r="122" spans="1:28" hidden="1">
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -5041,7 +5040,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="4"/>
     </row>
-    <row r="123" spans="1:28" hidden="1">
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -5073,7 +5072,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="4"/>
     </row>
-    <row r="124" spans="1:28" hidden="1">
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -5105,7 +5104,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="4"/>
     </row>
-    <row r="125" spans="1:28" hidden="1">
+    <row r="125" spans="1:28">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -5137,7 +5136,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="4"/>
     </row>
-    <row r="126" spans="1:28" hidden="1">
+    <row r="126" spans="1:28">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -5169,7 +5168,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="4"/>
     </row>
-    <row r="127" spans="1:28" hidden="1">
+    <row r="127" spans="1:28">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -5201,7 +5200,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="4"/>
     </row>
-    <row r="128" spans="1:28" hidden="1">
+    <row r="128" spans="1:28">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -5233,7 +5232,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="4"/>
     </row>
-    <row r="129" spans="1:28" hidden="1">
+    <row r="129" spans="1:28">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -6786,7 +6785,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="4"/>
     </row>
-    <row r="187" spans="1:28" hidden="1">
+    <row r="187" spans="1:28">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -6821,7 +6820,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="4"/>
     </row>
-    <row r="188" spans="1:28" hidden="1">
+    <row r="188" spans="1:28">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -6856,7 +6855,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="4"/>
     </row>
-    <row r="189" spans="1:28" hidden="1">
+    <row r="189" spans="1:28">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -6894,7 +6893,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="4"/>
     </row>
-    <row r="190" spans="1:28" hidden="1">
+    <row r="190" spans="1:28">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -6935,7 +6934,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="4"/>
     </row>
-    <row r="191" spans="1:28" hidden="1">
+    <row r="191" spans="1:28">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -6976,7 +6975,7 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="4"/>
     </row>
-    <row r="192" spans="1:28" hidden="1">
+    <row r="192" spans="1:28">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -7017,7 +7016,7 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="4"/>
     </row>
-    <row r="193" spans="1:28" hidden="1">
+    <row r="193" spans="1:28">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -7058,7 +7057,7 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="4"/>
     </row>
-    <row r="194" spans="1:28" hidden="1">
+    <row r="194" spans="1:28">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -7099,7 +7098,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="4"/>
     </row>
-    <row r="195" spans="1:28" hidden="1">
+    <row r="195" spans="1:28">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -7140,7 +7139,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="4"/>
     </row>
-    <row r="196" spans="1:28" hidden="1">
+    <row r="196" spans="1:28">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -7181,7 +7180,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="4"/>
     </row>
-    <row r="197" spans="1:28" hidden="1">
+    <row r="197" spans="1:28">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -7222,7 +7221,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="4"/>
     </row>
-    <row r="198" spans="1:28" hidden="1">
+    <row r="198" spans="1:28">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -7263,7 +7262,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="4"/>
     </row>
-    <row r="199" spans="1:28" hidden="1">
+    <row r="199" spans="1:28">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -7304,7 +7303,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="4"/>
     </row>
-    <row r="200" spans="1:28" hidden="1">
+    <row r="200" spans="1:28">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -7345,7 +7344,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="4"/>
     </row>
-    <row r="201" spans="1:28" hidden="1">
+    <row r="201" spans="1:28">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -7386,7 +7385,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="4"/>
     </row>
-    <row r="202" spans="1:28" hidden="1">
+    <row r="202" spans="1:28">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -7427,7 +7426,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="4"/>
     </row>
-    <row r="203" spans="1:28" hidden="1">
+    <row r="203" spans="1:28">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -7468,7 +7467,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="4"/>
     </row>
-    <row r="204" spans="1:28" hidden="1">
+    <row r="204" spans="1:28">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="4"/>
     </row>
-    <row r="205" spans="1:28" hidden="1">
+    <row r="205" spans="1:28">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -7547,7 +7546,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="4"/>
     </row>
-    <row r="206" spans="1:28" hidden="1">
+    <row r="206" spans="1:28">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -7588,7 +7587,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="4"/>
     </row>
-    <row r="207" spans="1:28" hidden="1">
+    <row r="207" spans="1:28">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -7629,7 +7628,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="4"/>
     </row>
-    <row r="208" spans="1:28" hidden="1">
+    <row r="208" spans="1:28">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -7667,7 +7666,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="4"/>
     </row>
-    <row r="209" spans="1:28" hidden="1">
+    <row r="209" spans="1:28">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -7708,7 +7707,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="4"/>
     </row>
-    <row r="210" spans="1:28" hidden="1">
+    <row r="210" spans="1:28">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -7749,7 +7748,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="4"/>
     </row>
-    <row r="211" spans="1:28" hidden="1">
+    <row r="211" spans="1:28">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -7790,7 +7789,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="4"/>
     </row>
-    <row r="212" spans="1:28" hidden="1">
+    <row r="212" spans="1:28">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -7831,7 +7830,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="4"/>
     </row>
-    <row r="213" spans="1:28" hidden="1">
+    <row r="213" spans="1:28">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -7872,7 +7871,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="4"/>
     </row>
-    <row r="214" spans="1:28" hidden="1">
+    <row r="214" spans="1:28">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -7913,7 +7912,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="4"/>
     </row>
-    <row r="215" spans="1:28" hidden="1">
+    <row r="215" spans="1:28">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -7954,7 +7953,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="4"/>
     </row>
-    <row r="216" spans="1:28" hidden="1">
+    <row r="216" spans="1:28">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -7995,7 +7994,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="4"/>
     </row>
-    <row r="217" spans="1:28" hidden="1">
+    <row r="217" spans="1:28">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -8036,7 +8035,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="4"/>
     </row>
-    <row r="218" spans="1:28" hidden="1">
+    <row r="218" spans="1:28">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -8077,7 +8076,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="4"/>
     </row>
-    <row r="219" spans="1:28" hidden="1">
+    <row r="219" spans="1:28">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -8118,7 +8117,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="4"/>
     </row>
-    <row r="220" spans="1:28" hidden="1">
+    <row r="220" spans="1:28">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -8159,7 +8158,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="4"/>
     </row>
-    <row r="221" spans="1:28" hidden="1">
+    <row r="221" spans="1:28">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -8200,7 +8199,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="4"/>
     </row>
-    <row r="222" spans="1:28" hidden="1">
+    <row r="222" spans="1:28">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -8241,7 +8240,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="4"/>
     </row>
-    <row r="223" spans="1:28" hidden="1">
+    <row r="223" spans="1:28">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -8282,7 +8281,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="4"/>
     </row>
-    <row r="224" spans="1:28" hidden="1">
+    <row r="224" spans="1:28">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -8320,7 +8319,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="4"/>
     </row>
-    <row r="225" spans="1:28" hidden="1">
+    <row r="225" spans="1:28">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -8361,7 +8360,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="4"/>
     </row>
-    <row r="226" spans="1:28" hidden="1">
+    <row r="226" spans="1:28">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -8402,7 +8401,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="4"/>
     </row>
-    <row r="227" spans="1:28" hidden="1">
+    <row r="227" spans="1:28">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -8443,7 +8442,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="4"/>
     </row>
-    <row r="228" spans="1:28" hidden="1">
+    <row r="228" spans="1:28">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -8481,7 +8480,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="4"/>
     </row>
-    <row r="229" spans="1:28" hidden="1">
+    <row r="229" spans="1:28">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -8522,7 +8521,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="4"/>
     </row>
-    <row r="230" spans="1:28" hidden="1">
+    <row r="230" spans="1:28">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8562,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="4"/>
     </row>
-    <row r="231" spans="1:28" hidden="1">
+    <row r="231" spans="1:28">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -8604,7 +8603,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="4"/>
     </row>
-    <row r="232" spans="1:28" hidden="1">
+    <row r="232" spans="1:28">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -8645,7 +8644,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="4"/>
     </row>
-    <row r="233" spans="1:28" hidden="1">
+    <row r="233" spans="1:28">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -8680,7 +8679,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="4"/>
     </row>
-    <row r="234" spans="1:28" hidden="1">
+    <row r="234" spans="1:28">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -8715,7 +8714,7 @@
       <c r="AA234" s="2"/>
       <c r="AB234" s="4"/>
     </row>
-    <row r="235" spans="1:28" hidden="1">
+    <row r="235" spans="1:28">
       <c r="A235" t="s">
         <v>22</v>
       </c>
@@ -8753,7 +8752,7 @@
       <c r="AA235" s="2"/>
       <c r="AB235" s="4"/>
     </row>
-    <row r="236" spans="1:28" hidden="1">
+    <row r="236" spans="1:28">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -8794,7 +8793,7 @@
       <c r="AA236" s="2"/>
       <c r="AB236" s="4"/>
     </row>
-    <row r="237" spans="1:28" hidden="1">
+    <row r="237" spans="1:28">
       <c r="A237" t="s">
         <v>22</v>
       </c>
@@ -8835,7 +8834,7 @@
       <c r="AA237" s="2"/>
       <c r="AB237" s="4"/>
     </row>
-    <row r="238" spans="1:28" hidden="1">
+    <row r="238" spans="1:28">
       <c r="A238" t="s">
         <v>22</v>
       </c>
@@ -8873,7 +8872,7 @@
       <c r="AA238" s="2"/>
       <c r="AB238" s="4"/>
     </row>
-    <row r="239" spans="1:28" hidden="1">
+    <row r="239" spans="1:28">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -8914,7 +8913,7 @@
       <c r="AA239" s="2"/>
       <c r="AB239" s="4"/>
     </row>
-    <row r="240" spans="1:28" hidden="1">
+    <row r="240" spans="1:28">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -8955,7 +8954,7 @@
       <c r="AA240" s="2"/>
       <c r="AB240" s="4"/>
     </row>
-    <row r="241" spans="1:28" hidden="1">
+    <row r="241" spans="1:28">
       <c r="A241" t="s">
         <v>22</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="AA241" s="2"/>
       <c r="AB241" s="4"/>
     </row>
-    <row r="242" spans="1:28" hidden="1">
+    <row r="242" spans="1:28">
       <c r="A242" t="s">
         <v>22</v>
       </c>
@@ -9034,7 +9033,7 @@
       <c r="AA242" s="2"/>
       <c r="AB242" s="4"/>
     </row>
-    <row r="243" spans="1:28" hidden="1">
+    <row r="243" spans="1:28">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -9075,7 +9074,7 @@
       <c r="AA243" s="2"/>
       <c r="AB243" s="4"/>
     </row>
-    <row r="244" spans="1:28" hidden="1">
+    <row r="244" spans="1:28">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -9116,7 +9115,7 @@
       <c r="AA244" s="2"/>
       <c r="AB244" s="4"/>
     </row>
-    <row r="245" spans="1:28" hidden="1">
+    <row r="245" spans="1:28">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -9157,7 +9156,7 @@
       <c r="AA245" s="2"/>
       <c r="AB245" s="4"/>
     </row>
-    <row r="246" spans="1:28" hidden="1">
+    <row r="246" spans="1:28">
       <c r="A246" t="s">
         <v>22</v>
       </c>
@@ -9195,7 +9194,7 @@
       <c r="AA246" s="2"/>
       <c r="AB246" s="4"/>
     </row>
-    <row r="247" spans="1:28" hidden="1">
+    <row r="247" spans="1:28">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -9236,7 +9235,7 @@
       <c r="AA247" s="2"/>
       <c r="AB247" s="4"/>
     </row>
-    <row r="248" spans="1:28" hidden="1">
+    <row r="248" spans="1:28">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -9277,7 +9276,7 @@
       <c r="AA248" s="2"/>
       <c r="AB248" s="4"/>
     </row>
-    <row r="249" spans="1:28" hidden="1">
+    <row r="249" spans="1:28">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -9318,7 +9317,7 @@
       <c r="AA249" s="2"/>
       <c r="AB249" s="4"/>
     </row>
-    <row r="250" spans="1:28" hidden="1">
+    <row r="250" spans="1:28">
       <c r="A250" t="s">
         <v>22</v>
       </c>
@@ -9356,7 +9355,7 @@
       <c r="AA250" s="2"/>
       <c r="AB250" s="4"/>
     </row>
-    <row r="251" spans="1:28" hidden="1">
+    <row r="251" spans="1:28">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -9397,7 +9396,7 @@
       <c r="AA251" s="2"/>
       <c r="AB251" s="4"/>
     </row>
-    <row r="252" spans="1:28" hidden="1">
+    <row r="252" spans="1:28">
       <c r="A252" t="s">
         <v>22</v>
       </c>
@@ -9438,7 +9437,7 @@
       <c r="AA252" s="2"/>
       <c r="AB252" s="4"/>
     </row>
-    <row r="253" spans="1:28" hidden="1">
+    <row r="253" spans="1:28">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -9479,7 +9478,7 @@
       <c r="AA253" s="2"/>
       <c r="AB253" s="4"/>
     </row>
-    <row r="254" spans="1:28" hidden="1">
+    <row r="254" spans="1:28">
       <c r="A254" t="s">
         <v>22</v>
       </c>
@@ -9517,7 +9516,7 @@
       <c r="AA254" s="2"/>
       <c r="AB254" s="4"/>
     </row>
-    <row r="255" spans="1:28" hidden="1">
+    <row r="255" spans="1:28">
       <c r="A255" t="s">
         <v>22</v>
       </c>
@@ -9558,7 +9557,7 @@
       <c r="AA255" s="2"/>
       <c r="AB255" s="4"/>
     </row>
-    <row r="256" spans="1:28" hidden="1">
+    <row r="256" spans="1:28">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -9599,7 +9598,7 @@
       <c r="AA256" s="2"/>
       <c r="AB256" s="4"/>
     </row>
-    <row r="257" spans="1:28" hidden="1">
+    <row r="257" spans="1:28">
       <c r="A257" t="s">
         <v>22</v>
       </c>
@@ -9640,7 +9639,7 @@
       <c r="AA257" s="2"/>
       <c r="AB257" s="4"/>
     </row>
-    <row r="258" spans="1:28" hidden="1">
+    <row r="258" spans="1:28">
       <c r="A258" t="s">
         <v>22</v>
       </c>
@@ -9678,7 +9677,7 @@
       <c r="AA258" s="2"/>
       <c r="AB258" s="4"/>
     </row>
-    <row r="259" spans="1:28" hidden="1">
+    <row r="259" spans="1:28">
       <c r="A259" t="s">
         <v>22</v>
       </c>
@@ -9719,7 +9718,7 @@
       <c r="AA259" s="2"/>
       <c r="AB259" s="4"/>
     </row>
-    <row r="260" spans="1:28" hidden="1">
+    <row r="260" spans="1:28">
       <c r="A260" t="s">
         <v>22</v>
       </c>
@@ -9760,7 +9759,7 @@
       <c r="AA260" s="2"/>
       <c r="AB260" s="4"/>
     </row>
-    <row r="261" spans="1:28" hidden="1">
+    <row r="261" spans="1:28">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -9801,7 +9800,7 @@
       <c r="AA261" s="2"/>
       <c r="AB261" s="4"/>
     </row>
-    <row r="262" spans="1:28" hidden="1">
+    <row r="262" spans="1:28">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -9842,7 +9841,7 @@
       <c r="AA262" s="2"/>
       <c r="AB262" s="4"/>
     </row>
-    <row r="263" spans="1:28" hidden="1">
+    <row r="263" spans="1:28">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -9883,7 +9882,7 @@
       <c r="AA263" s="2"/>
       <c r="AB263" s="4"/>
     </row>
-    <row r="264" spans="1:28" hidden="1">
+    <row r="264" spans="1:28">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -9924,7 +9923,7 @@
       <c r="AA264" s="2"/>
       <c r="AB264" s="4"/>
     </row>
-    <row r="265" spans="1:28" hidden="1">
+    <row r="265" spans="1:28">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -9965,7 +9964,7 @@
       <c r="AA265" s="2"/>
       <c r="AB265" s="4"/>
     </row>
-    <row r="266" spans="1:28" hidden="1">
+    <row r="266" spans="1:28">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -10003,7 +10002,7 @@
       <c r="AA266" s="2"/>
       <c r="AB266" s="4"/>
     </row>
-    <row r="267" spans="1:28" hidden="1">
+    <row r="267" spans="1:28">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -10044,7 +10043,7 @@
       <c r="AA267" s="2"/>
       <c r="AB267" s="4"/>
     </row>
-    <row r="268" spans="1:28" hidden="1">
+    <row r="268" spans="1:28">
       <c r="A268" t="s">
         <v>22</v>
       </c>
@@ -10085,7 +10084,7 @@
       <c r="AA268" s="2"/>
       <c r="AB268" s="4"/>
     </row>
-    <row r="269" spans="1:28" hidden="1">
+    <row r="269" spans="1:28">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -10126,7 +10125,7 @@
       <c r="AA269" s="2"/>
       <c r="AB269" s="4"/>
     </row>
-    <row r="270" spans="1:28" hidden="1">
+    <row r="270" spans="1:28">
       <c r="A270" t="s">
         <v>22</v>
       </c>
@@ -10167,7 +10166,7 @@
       <c r="AA270" s="2"/>
       <c r="AB270" s="4"/>
     </row>
-    <row r="271" spans="1:28" hidden="1">
+    <row r="271" spans="1:28">
       <c r="A271" t="s">
         <v>22</v>
       </c>
@@ -10208,7 +10207,7 @@
       <c r="AA271" s="2"/>
       <c r="AB271" s="4"/>
     </row>
-    <row r="272" spans="1:28" hidden="1">
+    <row r="272" spans="1:28">
       <c r="A272" t="s">
         <v>22</v>
       </c>
@@ -10249,7 +10248,7 @@
       <c r="AA272" s="2"/>
       <c r="AB272" s="4"/>
     </row>
-    <row r="273" spans="1:29" hidden="1">
+    <row r="273" spans="1:29">
       <c r="A273" t="s">
         <v>22</v>
       </c>
@@ -10290,7 +10289,7 @@
       <c r="AA273" s="2"/>
       <c r="AB273" s="4"/>
     </row>
-    <row r="274" spans="1:29" hidden="1">
+    <row r="274" spans="1:29">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -10328,7 +10327,7 @@
       <c r="AA274" s="2"/>
       <c r="AB274" s="4"/>
     </row>
-    <row r="275" spans="1:29" hidden="1">
+    <row r="275" spans="1:29">
       <c r="A275" t="s">
         <v>22</v>
       </c>
@@ -10369,7 +10368,7 @@
       <c r="AA275" s="2"/>
       <c r="AB275" s="4"/>
     </row>
-    <row r="276" spans="1:29" hidden="1">
+    <row r="276" spans="1:29">
       <c r="A276" t="s">
         <v>22</v>
       </c>
@@ -10410,7 +10409,7 @@
       <c r="AA276" s="2"/>
       <c r="AB276" s="4"/>
     </row>
-    <row r="277" spans="1:29" hidden="1">
+    <row r="277" spans="1:29">
       <c r="A277" t="s">
         <v>22</v>
       </c>
@@ -10451,7 +10450,7 @@
       <c r="AA277" s="2"/>
       <c r="AB277" s="4"/>
     </row>
-    <row r="278" spans="1:29" hidden="1">
+    <row r="278" spans="1:29">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -10486,7 +10485,7 @@
       <c r="AA278" s="2"/>
       <c r="AB278" s="4"/>
     </row>
-    <row r="279" spans="1:29" hidden="1">
+    <row r="279" spans="1:29">
       <c r="A279" t="s">
         <v>22</v>
       </c>
@@ -10527,7 +10526,7 @@
       <c r="AA279" s="2"/>
       <c r="AB279" s="4"/>
     </row>
-    <row r="280" spans="1:29" hidden="1">
+    <row r="280" spans="1:29">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -10556,7 +10555,7 @@
       <c r="AB280" s="4"/>
       <c r="AC280" s="2"/>
     </row>
-    <row r="281" spans="1:29" hidden="1">
+    <row r="281" spans="1:29">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -10595,7 +10594,7 @@
       </c>
       <c r="AC281" s="2"/>
     </row>
-    <row r="282" spans="1:29" hidden="1">
+    <row r="282" spans="1:29">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -10634,7 +10633,7 @@
       </c>
       <c r="AC282" s="2"/>
     </row>
-    <row r="283" spans="1:29" hidden="1">
+    <row r="283" spans="1:29">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -10664,7 +10663,7 @@
       <c r="AB283" s="4"/>
       <c r="AC283" s="2"/>
     </row>
-    <row r="284" spans="1:29" hidden="1">
+    <row r="284" spans="1:29">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -10693,7 +10692,7 @@
       <c r="AB284" s="4"/>
       <c r="AC284" s="2"/>
     </row>
-    <row r="285" spans="1:29" hidden="1">
+    <row r="285" spans="1:29">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -10727,7 +10726,7 @@
       </c>
       <c r="AC285" s="2"/>
     </row>
-    <row r="286" spans="1:29" hidden="1">
+    <row r="286" spans="1:29">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -10766,7 +10765,7 @@
       </c>
       <c r="AC286" s="2"/>
     </row>
-    <row r="287" spans="1:29" hidden="1">
+    <row r="287" spans="1:29">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -10811,7 +10810,7 @@
       </c>
       <c r="AC287" s="2"/>
     </row>
-    <row r="288" spans="1:29" hidden="1">
+    <row r="288" spans="1:29">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -10850,7 +10849,7 @@
       </c>
       <c r="AC288" s="2"/>
     </row>
-    <row r="289" spans="1:29" hidden="1">
+    <row r="289" spans="1:29">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -10895,7 +10894,7 @@
       </c>
       <c r="AC289" s="2"/>
     </row>
-    <row r="290" spans="1:29" hidden="1">
+    <row r="290" spans="1:29">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -10928,7 +10927,7 @@
       </c>
       <c r="AC290" s="2"/>
     </row>
-    <row r="291" spans="1:29" hidden="1">
+    <row r="291" spans="1:29">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -10957,7 +10956,7 @@
       <c r="AB291" s="4"/>
       <c r="AC291" s="2"/>
     </row>
-    <row r="292" spans="1:29" hidden="1">
+    <row r="292" spans="1:29">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -10993,7 +10992,7 @@
       </c>
       <c r="AC292" s="2"/>
     </row>
-    <row r="293" spans="1:29" hidden="1">
+    <row r="293" spans="1:29">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -11032,7 +11031,7 @@
       </c>
       <c r="AC293" s="2"/>
     </row>
-    <row r="294" spans="1:29" hidden="1">
+    <row r="294" spans="1:29">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -11071,7 +11070,7 @@
       </c>
       <c r="AC294" s="2"/>
     </row>
-    <row r="295" spans="1:29" hidden="1">
+    <row r="295" spans="1:29">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -11107,7 +11106,7 @@
       </c>
       <c r="AC295" s="2"/>
     </row>
-    <row r="296" spans="1:29" hidden="1">
+    <row r="296" spans="1:29">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -11136,7 +11135,7 @@
       <c r="AB296" s="4"/>
       <c r="AC296" s="2"/>
     </row>
-    <row r="297" spans="1:29" hidden="1">
+    <row r="297" spans="1:29">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -11165,7 +11164,7 @@
       <c r="AB297" s="4"/>
       <c r="AC297" s="2"/>
     </row>
-    <row r="298" spans="1:29" hidden="1">
+    <row r="298" spans="1:29">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -11194,7 +11193,7 @@
       <c r="AB298" s="4"/>
       <c r="AC298" s="2"/>
     </row>
-    <row r="299" spans="1:29" hidden="1">
+    <row r="299" spans="1:29">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -11230,7 +11229,7 @@
       </c>
       <c r="AC299" s="2"/>
     </row>
-    <row r="300" spans="1:29" hidden="1">
+    <row r="300" spans="1:29">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -11260,7 +11259,7 @@
       </c>
       <c r="AC300" s="2"/>
     </row>
-    <row r="301" spans="1:29" hidden="1">
+    <row r="301" spans="1:29">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -11293,7 +11292,7 @@
       </c>
       <c r="AC301" s="2"/>
     </row>
-    <row r="302" spans="1:29" hidden="1">
+    <row r="302" spans="1:29">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -11322,7 +11321,7 @@
       <c r="AB302" s="4"/>
       <c r="AC302" s="2"/>
     </row>
-    <row r="303" spans="1:29" hidden="1">
+    <row r="303" spans="1:29">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -11351,7 +11350,7 @@
       <c r="AB303" s="4"/>
       <c r="AC303" s="2"/>
     </row>
-    <row r="304" spans="1:29" hidden="1">
+    <row r="304" spans="1:29">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -11380,7 +11379,7 @@
       <c r="AB304" s="4"/>
       <c r="AC304" s="2"/>
     </row>
-    <row r="305" spans="1:29" hidden="1">
+    <row r="305" spans="1:29">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -11414,7 +11413,7 @@
       </c>
       <c r="AC305" s="2"/>
     </row>
-    <row r="306" spans="1:29" hidden="1">
+    <row r="306" spans="1:29">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -11443,7 +11442,7 @@
       <c r="AB306" s="4"/>
       <c r="AC306" s="2"/>
     </row>
-    <row r="307" spans="1:29" hidden="1">
+    <row r="307" spans="1:29">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -11472,7 +11471,7 @@
       <c r="AB307" s="4"/>
       <c r="AC307" s="2"/>
     </row>
-    <row r="308" spans="1:29" hidden="1">
+    <row r="308" spans="1:29">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -11508,7 +11507,7 @@
       </c>
       <c r="AC308" s="2"/>
     </row>
-    <row r="309" spans="1:29" hidden="1">
+    <row r="309" spans="1:29">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -11547,7 +11546,7 @@
       </c>
       <c r="AC309" s="2"/>
     </row>
-    <row r="310" spans="1:29" hidden="1">
+    <row r="310" spans="1:29">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -11592,7 +11591,7 @@
       </c>
       <c r="AC310" s="2"/>
     </row>
-    <row r="311" spans="1:29" hidden="1">
+    <row r="311" spans="1:29">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -11637,7 +11636,7 @@
       </c>
       <c r="AC311" s="2"/>
     </row>
-    <row r="312" spans="1:29" hidden="1">
+    <row r="312" spans="1:29">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -11667,7 +11666,7 @@
       <c r="AB312" s="4"/>
       <c r="AC312" s="2"/>
     </row>
-    <row r="313" spans="1:29" hidden="1">
+    <row r="313" spans="1:29">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -11706,7 +11705,7 @@
       </c>
       <c r="AC313" s="2"/>
     </row>
-    <row r="314" spans="1:29" hidden="1">
+    <row r="314" spans="1:29">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -11751,7 +11750,7 @@
       </c>
       <c r="AC314" s="2"/>
     </row>
-    <row r="315" spans="1:29" hidden="1">
+    <row r="315" spans="1:29">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -11796,7 +11795,7 @@
       </c>
       <c r="AC315" s="2"/>
     </row>
-    <row r="316" spans="1:29" hidden="1">
+    <row r="316" spans="1:29">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -11841,7 +11840,7 @@
       </c>
       <c r="AC316" s="2"/>
     </row>
-    <row r="317" spans="1:29" hidden="1">
+    <row r="317" spans="1:29">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -11886,7 +11885,7 @@
       </c>
       <c r="AC317" s="2"/>
     </row>
-    <row r="318" spans="1:29" hidden="1">
+    <row r="318" spans="1:29">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -11915,7 +11914,7 @@
       <c r="AB318" s="4"/>
       <c r="AC318" s="2"/>
     </row>
-    <row r="319" spans="1:29" hidden="1">
+    <row r="319" spans="1:29">
       <c r="A319" t="s">
         <v>17</v>
       </c>
@@ -11954,7 +11953,7 @@
       </c>
       <c r="AC319" s="2"/>
     </row>
-    <row r="320" spans="1:29" hidden="1">
+    <row r="320" spans="1:29">
       <c r="A320" t="s">
         <v>17</v>
       </c>
@@ -11999,7 +11998,7 @@
       </c>
       <c r="AC320" s="2"/>
     </row>
-    <row r="321" spans="1:29" hidden="1">
+    <row r="321" spans="1:29">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -12026,7 +12025,7 @@
       <c r="AB321" s="4"/>
       <c r="AC321" s="2"/>
     </row>
-    <row r="322" spans="1:29" hidden="1">
+    <row r="322" spans="1:29">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -12068,7 +12067,7 @@
       </c>
       <c r="AC322" s="2"/>
     </row>
-    <row r="323" spans="1:29" hidden="1">
+    <row r="323" spans="1:29">
       <c r="A323" t="s">
         <v>17</v>
       </c>
@@ -12113,7 +12112,7 @@
       </c>
       <c r="AC323" s="2"/>
     </row>
-    <row r="324" spans="1:29" hidden="1">
+    <row r="324" spans="1:29">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -12158,7 +12157,7 @@
       </c>
       <c r="AC324" s="2"/>
     </row>
-    <row r="325" spans="1:29" hidden="1">
+    <row r="325" spans="1:29">
       <c r="A325" t="s">
         <v>17</v>
       </c>
@@ -12187,7 +12186,7 @@
       <c r="AB325" s="4"/>
       <c r="AC325" s="2"/>
     </row>
-    <row r="326" spans="1:29" hidden="1">
+    <row r="326" spans="1:29">
       <c r="A326" t="s">
         <v>17</v>
       </c>
@@ -12232,7 +12231,7 @@
       </c>
       <c r="AC326" s="2"/>
     </row>
-    <row r="327" spans="1:29" hidden="1">
+    <row r="327" spans="1:29">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -12277,7 +12276,7 @@
       </c>
       <c r="AC327" s="2"/>
     </row>
-    <row r="328" spans="1:29" hidden="1">
+    <row r="328" spans="1:29">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -12322,7 +12321,7 @@
       </c>
       <c r="AC328" s="2"/>
     </row>
-    <row r="329" spans="1:29" hidden="1">
+    <row r="329" spans="1:29">
       <c r="A329" t="s">
         <v>17</v>
       </c>
@@ -12367,7 +12366,7 @@
       </c>
       <c r="AC329" s="2"/>
     </row>
-    <row r="330" spans="1:29" hidden="1">
+    <row r="330" spans="1:29">
       <c r="A330" t="s">
         <v>17</v>
       </c>
@@ -12396,7 +12395,7 @@
       <c r="AB330" s="4"/>
       <c r="AC330" s="2"/>
     </row>
-    <row r="331" spans="1:29" hidden="1">
+    <row r="331" spans="1:29">
       <c r="A331" t="s">
         <v>17</v>
       </c>
@@ -12441,7 +12440,7 @@
       </c>
       <c r="AC331" s="2"/>
     </row>
-    <row r="332" spans="1:29" hidden="1">
+    <row r="332" spans="1:29">
       <c r="A332" t="s">
         <v>17</v>
       </c>
@@ -12486,7 +12485,7 @@
       </c>
       <c r="AC332" s="2"/>
     </row>
-    <row r="333" spans="1:29" hidden="1">
+    <row r="333" spans="1:29">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -12531,7 +12530,7 @@
       </c>
       <c r="AC333" s="2"/>
     </row>
-    <row r="334" spans="1:29" hidden="1">
+    <row r="334" spans="1:29">
       <c r="A334" t="s">
         <v>17</v>
       </c>
@@ -12576,7 +12575,7 @@
       </c>
       <c r="AC334" s="2"/>
     </row>
-    <row r="335" spans="1:29" hidden="1">
+    <row r="335" spans="1:29">
       <c r="A335" t="s">
         <v>17</v>
       </c>
@@ -12619,7 +12618,7 @@
       <c r="AB335" s="4"/>
       <c r="AC335" s="2"/>
     </row>
-    <row r="336" spans="1:29" hidden="1">
+    <row r="336" spans="1:29">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -12664,7 +12663,7 @@
       </c>
       <c r="AC336" s="2"/>
     </row>
-    <row r="337" spans="1:29" hidden="1">
+    <row r="337" spans="1:29">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -12706,7 +12705,7 @@
       </c>
       <c r="AC337" s="2"/>
     </row>
-    <row r="338" spans="1:29" hidden="1">
+    <row r="338" spans="1:29">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -12733,7 +12732,7 @@
       <c r="AB338" s="4"/>
       <c r="AC338" s="2"/>
     </row>
-    <row r="339" spans="1:29" hidden="1">
+    <row r="339" spans="1:29">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -12772,7 +12771,7 @@
       </c>
       <c r="AC339" s="2"/>
     </row>
-    <row r="340" spans="1:29" hidden="1">
+    <row r="340" spans="1:29">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -12817,7 +12816,7 @@
       </c>
       <c r="AC340" s="2"/>
     </row>
-    <row r="341" spans="1:29" hidden="1">
+    <row r="341" spans="1:29">
       <c r="A341" t="s">
         <v>17</v>
       </c>
@@ -12862,7 +12861,7 @@
       </c>
       <c r="AC341" s="2"/>
     </row>
-    <row r="342" spans="1:29" hidden="1">
+    <row r="342" spans="1:29">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -12907,7 +12906,7 @@
       </c>
       <c r="AC342" s="2"/>
     </row>
-    <row r="343" spans="1:29" hidden="1">
+    <row r="343" spans="1:29">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -12936,7 +12935,7 @@
       <c r="AB343" s="4"/>
       <c r="AC343" s="2"/>
     </row>
-    <row r="344" spans="1:29" hidden="1">
+    <row r="344" spans="1:29">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -12965,7 +12964,7 @@
       <c r="AB344" s="4"/>
       <c r="AC344" s="2"/>
     </row>
-    <row r="345" spans="1:29" hidden="1">
+    <row r="345" spans="1:29">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -12992,7 +12991,7 @@
       <c r="AB345" s="4"/>
       <c r="AC345" s="2"/>
     </row>
-    <row r="346" spans="1:29" hidden="1">
+    <row r="346" spans="1:29">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -13024,7 +13023,7 @@
       <c r="AB346" s="4"/>
       <c r="AC346" s="2"/>
     </row>
-    <row r="347" spans="1:29" hidden="1">
+    <row r="347" spans="1:29">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -13053,7 +13052,7 @@
       <c r="AB347" s="4"/>
       <c r="AC347" s="2"/>
     </row>
-    <row r="348" spans="1:29" hidden="1">
+    <row r="348" spans="1:29">
       <c r="A348" t="s">
         <v>17</v>
       </c>
@@ -13085,7 +13084,7 @@
       <c r="AB348" s="4"/>
       <c r="AC348" s="2"/>
     </row>
-    <row r="349" spans="1:29" hidden="1">
+    <row r="349" spans="1:29">
       <c r="A349" t="s">
         <v>17</v>
       </c>
@@ -13117,7 +13116,7 @@
       <c r="AB349" s="4"/>
       <c r="AC349" s="2"/>
     </row>
-    <row r="350" spans="1:29" hidden="1">
+    <row r="350" spans="1:29">
       <c r="A350" t="s">
         <v>17</v>
       </c>
@@ -13149,7 +13148,7 @@
       <c r="AB350" s="4"/>
       <c r="AC350" s="2"/>
     </row>
-    <row r="351" spans="1:29" hidden="1">
+    <row r="351" spans="1:29">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -13181,7 +13180,7 @@
       <c r="AB351" s="4"/>
       <c r="AC351" s="2"/>
     </row>
-    <row r="352" spans="1:29" hidden="1">
+    <row r="352" spans="1:29">
       <c r="A352" t="s">
         <v>17</v>
       </c>
@@ -13210,7 +13209,7 @@
       <c r="AB352" s="4"/>
       <c r="AC352" s="2"/>
     </row>
-    <row r="353" spans="1:29" hidden="1">
+    <row r="353" spans="1:29">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -13239,7 +13238,7 @@
       <c r="AB353" s="4"/>
       <c r="AC353" s="2"/>
     </row>
-    <row r="354" spans="1:29" hidden="1">
+    <row r="354" spans="1:29">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -13271,7 +13270,7 @@
       <c r="AB354" s="4"/>
       <c r="AC354" s="2"/>
     </row>
-    <row r="355" spans="1:29" hidden="1">
+    <row r="355" spans="1:29">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -13303,7 +13302,7 @@
       <c r="AB355" s="4"/>
       <c r="AC355" s="2"/>
     </row>
-    <row r="356" spans="1:29" hidden="1">
+    <row r="356" spans="1:29">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -13335,7 +13334,7 @@
       <c r="AB356" s="4"/>
       <c r="AC356" s="2"/>
     </row>
-    <row r="357" spans="1:29" hidden="1">
+    <row r="357" spans="1:29">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -13367,7 +13366,7 @@
       <c r="AB357" s="4"/>
       <c r="AC357" s="2"/>
     </row>
-    <row r="358" spans="1:29" hidden="1">
+    <row r="358" spans="1:29">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -13399,7 +13398,7 @@
       <c r="AB358" s="4"/>
       <c r="AC358" s="2"/>
     </row>
-    <row r="359" spans="1:29" hidden="1">
+    <row r="359" spans="1:29">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -13429,7 +13428,7 @@
       <c r="AB359" s="4"/>
       <c r="AC359" s="2"/>
     </row>
-    <row r="360" spans="1:29" hidden="1">
+    <row r="360" spans="1:29">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -13459,7 +13458,7 @@
       <c r="AB360" s="4"/>
       <c r="AC360" s="2"/>
     </row>
-    <row r="361" spans="1:29" hidden="1">
+    <row r="361" spans="1:29">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -13489,7 +13488,7 @@
       <c r="AB361" s="4"/>
       <c r="AC361" s="2"/>
     </row>
-    <row r="362" spans="1:29" hidden="1">
+    <row r="362" spans="1:29">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -13516,7 +13515,7 @@
       <c r="AB362" s="4"/>
       <c r="AC362" s="2"/>
     </row>
-    <row r="363" spans="1:29" hidden="1">
+    <row r="363" spans="1:29">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -13543,7 +13542,7 @@
       <c r="AB363" s="4"/>
       <c r="AC363" s="2"/>
     </row>
-    <row r="364" spans="1:29" hidden="1">
+    <row r="364" spans="1:29">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -13573,7 +13572,7 @@
       <c r="AB364" s="4"/>
       <c r="AC364" s="2"/>
     </row>
-    <row r="365" spans="1:29" hidden="1">
+    <row r="365" spans="1:29">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -13603,7 +13602,7 @@
       <c r="AB365" s="4"/>
       <c r="AC365" s="2"/>
     </row>
-    <row r="366" spans="1:29" hidden="1">
+    <row r="366" spans="1:29">
       <c r="A366" t="s">
         <v>17</v>
       </c>
@@ -13630,7 +13629,7 @@
       <c r="AB366" s="4"/>
       <c r="AC366" s="2"/>
     </row>
-    <row r="367" spans="1:29" hidden="1">
+    <row r="367" spans="1:29">
       <c r="A367" t="s">
         <v>17</v>
       </c>
@@ -13657,7 +13656,7 @@
       <c r="AB367" s="4"/>
       <c r="AC367" s="2"/>
     </row>
-    <row r="368" spans="1:29" hidden="1">
+    <row r="368" spans="1:29">
       <c r="A368" t="s">
         <v>17</v>
       </c>
@@ -13689,7 +13688,7 @@
       <c r="AB368" s="4"/>
       <c r="AC368" s="2"/>
     </row>
-    <row r="369" spans="1:29" hidden="1">
+    <row r="369" spans="1:29">
       <c r="A369" t="s">
         <v>17</v>
       </c>
@@ -13718,7 +13717,7 @@
       <c r="AB369" s="4"/>
       <c r="AC369" s="2"/>
     </row>
-    <row r="370" spans="1:29" hidden="1">
+    <row r="370" spans="1:29">
       <c r="A370" t="s">
         <v>17</v>
       </c>
@@ -13750,7 +13749,7 @@
       <c r="AB370" s="4"/>
       <c r="AC370" s="2"/>
     </row>
-    <row r="371" spans="1:29" hidden="1">
+    <row r="371" spans="1:29">
       <c r="A371" t="s">
         <v>17</v>
       </c>
@@ -13782,7 +13781,7 @@
       <c r="AB371" s="4"/>
       <c r="AC371" s="2"/>
     </row>
-    <row r="372" spans="1:29" hidden="1">
+    <row r="372" spans="1:29">
       <c r="A372" t="s">
         <v>17</v>
       </c>
@@ -13811,7 +13810,7 @@
       <c r="AB372" s="4"/>
       <c r="AC372" s="2"/>
     </row>
-    <row r="373" spans="1:29" hidden="1">
+    <row r="373" spans="1:29">
       <c r="A373" t="s">
         <v>17</v>
       </c>
@@ -13843,7 +13842,7 @@
       <c r="AB373" s="4"/>
       <c r="AC373" s="2"/>
     </row>
-    <row r="374" spans="1:29" hidden="1">
+    <row r="374" spans="1:29">
       <c r="A374" t="s">
         <v>17</v>
       </c>
@@ -13872,7 +13871,7 @@
       <c r="AB374" s="4"/>
       <c r="AC374" s="2"/>
     </row>
-    <row r="375" spans="1:29" hidden="1">
+    <row r="375" spans="1:29">
       <c r="A375" t="s">
         <v>17</v>
       </c>
@@ -13904,7 +13903,7 @@
       <c r="AB375" s="4"/>
       <c r="AC375" s="2"/>
     </row>
-    <row r="376" spans="1:29" hidden="1">
+    <row r="376" spans="1:29">
       <c r="A376" t="s">
         <v>17</v>
       </c>
@@ -13933,7 +13932,7 @@
       <c r="AB376" s="4"/>
       <c r="AC376" s="2"/>
     </row>
-    <row r="377" spans="1:29" hidden="1">
+    <row r="377" spans="1:29">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -13965,7 +13964,7 @@
       <c r="AB377" s="4"/>
       <c r="AC377" s="2"/>
     </row>
-    <row r="378" spans="1:29" hidden="1">
+    <row r="378" spans="1:29">
       <c r="A378" t="s">
         <v>17</v>
       </c>
@@ -13997,7 +13996,7 @@
       <c r="AB378" s="4"/>
       <c r="AC378" s="2"/>
     </row>
-    <row r="379" spans="1:29" hidden="1">
+    <row r="379" spans="1:29">
       <c r="A379" t="s">
         <v>17</v>
       </c>
@@ -14029,7 +14028,7 @@
       <c r="AB379" s="4"/>
       <c r="AC379" s="2"/>
     </row>
-    <row r="380" spans="1:29" hidden="1">
+    <row r="380" spans="1:29">
       <c r="A380" t="s">
         <v>17</v>
       </c>
@@ -14059,7 +14058,7 @@
       <c r="AB380" s="4"/>
       <c r="AC380" s="2"/>
     </row>
-    <row r="381" spans="1:29" hidden="1">
+    <row r="381" spans="1:29">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -14091,7 +14090,7 @@
       <c r="AB381" s="4"/>
       <c r="AC381" s="2"/>
     </row>
-    <row r="382" spans="1:29" hidden="1">
+    <row r="382" spans="1:29">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -14123,7 +14122,7 @@
       <c r="AB382" s="4"/>
       <c r="AC382" s="2"/>
     </row>
-    <row r="383" spans="1:29" hidden="1">
+    <row r="383" spans="1:29">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -14155,7 +14154,7 @@
       <c r="AB383" s="4"/>
       <c r="AC383" s="2"/>
     </row>
-    <row r="384" spans="1:29" hidden="1">
+    <row r="384" spans="1:29">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -14187,7 +14186,7 @@
       <c r="AB384" s="4"/>
       <c r="AC384" s="2"/>
     </row>
-    <row r="385" spans="1:29" hidden="1">
+    <row r="385" spans="1:29">
       <c r="A385" t="s">
         <v>17</v>
       </c>
@@ -14219,7 +14218,7 @@
       <c r="AB385" s="4"/>
       <c r="AC385" s="2"/>
     </row>
-    <row r="386" spans="1:29" hidden="1">
+    <row r="386" spans="1:29">
       <c r="A386" t="s">
         <v>17</v>
       </c>
@@ -14251,7 +14250,7 @@
       <c r="AB386" s="4"/>
       <c r="AC386" s="2"/>
     </row>
-    <row r="387" spans="1:29" hidden="1">
+    <row r="387" spans="1:29">
       <c r="A387" t="s">
         <v>17</v>
       </c>
@@ -14283,7 +14282,7 @@
       <c r="AB387" s="4"/>
       <c r="AC387" s="2"/>
     </row>
-    <row r="388" spans="1:29" hidden="1">
+    <row r="388" spans="1:29">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -14315,7 +14314,7 @@
       <c r="AB388" s="4"/>
       <c r="AC388" s="2"/>
     </row>
-    <row r="389" spans="1:29" hidden="1">
+    <row r="389" spans="1:29">
       <c r="A389" t="s">
         <v>17</v>
       </c>
@@ -14855,16 +14854,7 @@
       <c r="AD1015" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD389" xr:uid="{C8FEDDCC-CE60-472F-A130-41A5BD5EE19F}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="JimbourSowingDateStrip3a"/>
-        <filter val="JimbourSowingDateStrip6"/>
-        <filter val="JimbourSowingDateStrip7"/>
-        <filter val="JimbourSowingDateStrip8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD389" xr:uid="{C8FEDDCC-CE60-472F-A130-41A5BD5EE19F}"/>
   <sortState ref="A286:P491">
     <sortCondition ref="C286:C491"/>
   </sortState>
